--- a/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2021-3.xlsx
+++ b/Corte de Apelaciones de Arica/1-2014001#992#1-G-ingresos_causas_por_materia-2021-3.xlsx
@@ -106,13 +106,13 @@
     <t>Presunta Desgracia Infantil.</t>
   </si>
   <si>
+    <t>Conduc.bajo Influen Del Alcohol Con O Sin Daños O Les.leves.</t>
+  </si>
+  <si>
     <t>Robo En Lugar No Habitado.</t>
   </si>
   <si>
     <t>Consumo/Porte De Drogas En Lugares Calificados (Art. 51).</t>
-  </si>
-  <si>
-    <t>Conduc.bajo Influen Del Alcohol Con O Sin Daños O Les.leves.</t>
   </si>
   <si>
     <t>Riña Pública (496 Nº 10 Código Penal).</t>
@@ -1309,7 +1309,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>97</v>
